--- a/NLP Projects/Divorce_Rate_Analysis/Divocre Rata Analysis.xlsx
+++ b/NLP Projects/Divorce_Rate_Analysis/Divocre Rata Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zee Tech\AppData\Local\Programs\Python\Python39\Scripts\Data_Analysis_Projects\NLP Projects\Divorce_Rate_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3B7C6E-4D83-44C1-8C49-4966A48BAC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C98A289-D569-40CE-8C94-5B4BBE73EA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19560" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="123">
   <si>
     <t>Submission Date</t>
   </si>
@@ -112,18 +112,9 @@
     <t>Love</t>
   </si>
   <si>
-    <t>FA</t>
-  </si>
-  <si>
     <t>arrange</t>
   </si>
   <si>
-    <t>larki mazoor thi</t>
-  </si>
-  <si>
-    <t>nhi parhi hui</t>
-  </si>
-  <si>
     <t>Lahore</t>
   </si>
   <si>
@@ -262,9 +253,6 @@
     <t>Kot Addu</t>
   </si>
   <si>
-    <t>Okara</t>
-  </si>
-  <si>
     <t>Unkown</t>
   </si>
   <si>
@@ -298,9 +286,6 @@
     <t>20 Years</t>
   </si>
   <si>
-    <t>5 Years</t>
-  </si>
-  <si>
     <t>4 Year</t>
   </si>
   <si>
@@ -374,12 +359,6 @@
   </si>
   <si>
     <t>Boy was Psycho, often fights with anyone, persecution on woman, fighting with family and spouse</t>
-  </si>
-  <si>
-    <t>mard larai karta tha, persecution on woman, fight with family and spouse</t>
-  </si>
-  <si>
-    <t>larai jhagara aurat se,persecution on woman, fight with family and spouse</t>
   </si>
   <si>
     <t>household issues, issue with mother in law and sister in law</t>
@@ -706,11 +685,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -741,61 +720,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44938.51866898148</v>
       </c>
@@ -812,10 +791,10 @@
         <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H2" s="3">
         <v>20000</v>
@@ -824,13 +803,13 @@
         <v>13</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M2" s="3">
         <v>0</v>
@@ -842,10 +821,10 @@
         <v>16</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>17</v>
@@ -855,7 +834,7 @@
         <v>5493176133981920000</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44938.527048611111</v>
       </c>
@@ -902,10 +881,10 @@
         <v>29</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>17</v>
@@ -944,7 +923,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>14</v>
@@ -962,10 +941,10 @@
         <v>16</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>17</v>
@@ -975,7 +954,7 @@
         <v>5493193637923190000</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44938.545208333337</v>
       </c>
@@ -1004,7 +983,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>14</v>
@@ -1022,10 +1001,10 @@
         <v>16</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>17</v>
@@ -1035,7 +1014,7 @@
         <v>5493199062022770000</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44938.66505787037</v>
       </c>
@@ -1064,7 +1043,7 @@
         <v>13</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>21</v>
@@ -1085,7 +1064,7 @@
         <v>23</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>17</v>
@@ -1095,7 +1074,7 @@
         <v>5493302613209600000</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44938.807395833333</v>
       </c>
@@ -1124,7 +1103,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>14</v>
@@ -1142,10 +1121,10 @@
         <v>16</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>17</v>
@@ -1155,12 +1134,12 @@
         <v>5493425564313870000</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44938.847881944443</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>3</v>
@@ -1172,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>27</v>
@@ -1202,10 +1181,10 @@
         <v>29</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>17</v>
@@ -1216,39 +1195,39 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44940.655833333331</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="H9" s="3">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="M9" s="3">
         <v>1</v>
       </c>
@@ -1262,191 +1241,199 @@
         <v>118</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="S9" s="3" t="str">
+        <f>TEXT("5495022452541576717","0")</f>
+        <v>5495022452541570000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44940.660555555558</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3">
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="3">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3">
-        <v>28</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3">
-        <v>35000</v>
+        <v>60000</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>17</v>
+        <v>52</v>
+      </c>
+      <c r="S10" s="3" t="str">
+        <f>TEXT("5495026723149408113","0")</f>
+        <v>5495026723149400000</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44940.655833333331</v>
+        <v>44940.665509259263</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H11" s="3">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="L11" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="M11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S11" s="3" t="str">
-        <f>TEXT("5495022452541576717","0")</f>
-        <v>5495022452541570000</v>
+        <f>TEXT("5495030609376851703","0")</f>
+        <v>5495030609376850000</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44940.660555555558</v>
+        <v>44940.67082175926</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3">
         <v>40</v>
       </c>
       <c r="E12" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H12" s="3">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="S12" s="3" t="str">
-        <f>TEXT("5495026723149408113","0")</f>
-        <v>5495026723149400000</v>
+        <f>TEXT("5495035591956341886","0")</f>
+        <v>5495035591956340000</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44940.665509259263</v>
+        <v>44940.721631944441</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="D13" s="3">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3">
+        <v>25</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" s="3">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
@@ -1457,47 +1444,50 @@
       <c r="O13" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="P13" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="Q13" s="3" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S13" s="3" t="str">
-        <f>TEXT("5495030609376851703","0")</f>
-        <v>5495030609376850000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+        <f>TEXT("5495079490511700607","0")</f>
+        <v>5495079490511700000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44940.67082175926</v>
+        <v>44940.860150462962</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E14" s="3">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H14" s="3">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>14</v>
@@ -1506,7 +1496,7 @@
         <v>15</v>
       </c>
       <c r="M14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>9</v>
@@ -1515,55 +1505,55 @@
         <v>16</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S14" s="3" t="str">
-        <f>TEXT("5495035591956341886","0")</f>
-        <v>5495035591956340000</v>
+        <f>TEXT("5495199177481944986","0")</f>
+        <v>5495199177481940000</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44940.721631944441</v>
+        <v>44940.861898148149</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="3">
         <v>25000</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1572,52 +1562,52 @@
         <v>9</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="Q15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" s="3" t="str">
+        <f>TEXT("5495200687486766263","0")</f>
+        <v>5495200687486760000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>44940.863796296297</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" s="3" t="str">
-        <f>TEXT("5495079490511700607","0")</f>
-        <v>5495079490511700000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>44940.860150462962</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D16" s="3">
         <v>23</v>
       </c>
       <c r="E16" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>14</v>
@@ -1626,7 +1616,7 @@
         <v>15</v>
       </c>
       <c r="M16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>9</v>
@@ -1635,22 +1625,22 @@
         <v>16</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S16" s="3" t="str">
-        <f>TEXT("5495199177481944986","0")</f>
-        <v>5495199177481940000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+        <f>TEXT("5495202327481674206","0")</f>
+        <v>5495202327481670000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44940.861898148149</v>
+        <v>44940.867291666669</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>3</v>
@@ -1659,25 +1649,25 @@
         <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H17" s="3">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>14</v>
@@ -1695,49 +1685,49 @@
         <v>16</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="S17" s="3" t="str">
-        <f>TEXT("5495200687486766263","0")</f>
-        <v>5495200687486760000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+        <f>TEXT("5495205347487933613","0")</f>
+        <v>5495205347487930000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44940.863796296297</v>
+        <v>44940.874201388891</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="H18" s="3">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>14</v>
@@ -1749,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S18" s="3" t="str">
-        <f>TEXT("5495202327481674206","0")</f>
-        <v>5495202327481670000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+        <f>TEXT("5495211317484008859","0")</f>
+        <v>5495211317484000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44940.867291666669</v>
+        <v>44940.893009259256</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
@@ -1779,13 +1769,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E19" s="3">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>56</v>
@@ -1797,7 +1787,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>14</v>
@@ -1806,58 +1796,58 @@
         <v>15</v>
       </c>
       <c r="M19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S19" s="3" t="str">
-        <f>TEXT("5495205347487933613","0")</f>
-        <v>5495205347487930000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+        <f>TEXT("5495227562424460576","0")</f>
+        <v>5495227562424460000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44940.874201388891</v>
+        <v>44940.895428240743</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="3">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3">
         <v>26</v>
       </c>
-      <c r="E20" s="3">
-        <v>24</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H20" s="3">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>14</v>
@@ -1869,28 +1859,28 @@
         <v>1</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="S20" s="3" t="str">
-        <f>TEXT("5495211317484008859","0")</f>
-        <v>5495211317484000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+        <f>TEXT("5495229652425405175","0")</f>
+        <v>5495229652425400000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44940.893009259256</v>
+        <v>44940.900150462963</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>3</v>
@@ -1899,58 +1889,58 @@
         <v>3</v>
       </c>
       <c r="D21" s="3">
+        <v>32</v>
+      </c>
+      <c r="E21" s="3">
         <v>27</v>
-      </c>
-      <c r="E21" s="3">
-        <v>18</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H21" s="3">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S21" s="3" t="str">
-        <f>TEXT("5495227562424460576","0")</f>
-        <v>5495227562424460000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+        <f>TEXT("5495233732424772640","0")</f>
+        <v>5495233732424770000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>44940.895428240743</v>
+        <v>44940.9059837963</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>3</v>
@@ -1959,37 +1949,37 @@
         <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E22" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H22" s="3">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M22" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>16</v>
@@ -1998,19 +1988,19 @@
         <v>61</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="S22" s="3" t="str">
-        <f>TEXT("5495229652425405175","0")</f>
-        <v>5495229652425400000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+        <f>TEXT("5495238776412986986","0")</f>
+        <v>5495238776412980000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>44940.900150462963</v>
+        <v>44940.90997685185</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>3</v>
@@ -2019,16 +2009,16 @@
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E23" s="3">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="H23" s="3">
         <v>60000</v>
@@ -2037,7 +2027,7 @@
         <v>13</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>14</v>
@@ -2046,7 +2036,7 @@
         <v>22</v>
       </c>
       <c r="M23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>9</v>
@@ -2055,7 +2045,7 @@
         <v>16</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>90</v>
@@ -2064,13 +2054,13 @@
         <v>17</v>
       </c>
       <c r="S23" s="3" t="str">
-        <f>TEXT("5495233732424772640","0")</f>
-        <v>5495233732424770000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+        <f>TEXT("5495242226412045257","0")</f>
+        <v>5495242226412040000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>44940.9059837963</v>
+        <v>44940.942569444444</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>3</v>
@@ -2079,25 +2069,25 @@
         <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E24" s="3">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H24" s="3">
-        <v>10000</v>
+        <v>70000</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>14</v>
@@ -2106,7 +2096,7 @@
         <v>22</v>
       </c>
       <c r="M24" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>9</v>
@@ -2115,58 +2105,58 @@
         <v>16</v>
       </c>
       <c r="P24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="3" t="str">
+        <f>TEXT("5495270382428878294","0")</f>
+        <v>5495270382428870000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>44940.957372685189</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="3">
+        <v>31</v>
+      </c>
+      <c r="E25" s="3">
+        <v>28</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S24" s="3" t="str">
-        <f>TEXT("5495238776412986986","0")</f>
-        <v>5495238776412980000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>44940.90997685185</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3">
-        <v>40</v>
-      </c>
-      <c r="E25" s="3">
-        <v>37</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G25" s="3" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="H25" s="3">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>9</v>
@@ -2175,23 +2165,20 @@
         <v>16</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S25" s="3" t="str">
-        <f>TEXT("5495242226412045257","0")</f>
-        <v>5495242226412040000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>44940.942569444444</v>
-      </c>
+        <f>TEXT("5495283179968689195","0")</f>
+        <v>5495283179968680000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2199,16 +2186,16 @@
         <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E26" s="3">
         <v>18</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H26" s="3">
         <v>70000</v>
@@ -2217,7 +2204,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>14</v>
@@ -2229,64 +2216,57 @@
         <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S26" s="3" t="str">
-        <f>TEXT("5495270382428878294","0")</f>
-        <v>5495270382428870000</v>
-      </c>
     </row>
     <row r="27" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>44940.957372685189</v>
-      </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E27" s="3">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H27" s="3">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>9</v>
@@ -2295,20 +2275,16 @@
         <v>16</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S27" s="3" t="str">
-        <f>TEXT("5495283179968689195","0")</f>
-        <v>5495283179968680000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
@@ -2316,87 +2292,90 @@
         <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E28" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H28" s="3">
-        <v>70000</v>
+        <v>20000</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="M28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>70</v>
+        <v>30</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>44942.789178240739</v>
+      </c>
       <c r="B29" s="3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D29" s="3">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E29" s="3">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>9</v>
@@ -2408,13 +2387,20 @@
         <v>73</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="str">
+        <f>TEXT("5496865618548718154","0")</f>
+        <v>5496865618548710000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>44945.701412037037</v>
+      </c>
       <c r="B30" s="3" t="s">
         <v>3</v>
       </c>
@@ -2422,167 +2408,51 @@
         <v>3</v>
       </c>
       <c r="D30" s="3">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E30" s="3">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H30" s="3">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="M30" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" s="3" t="s">
         <v>75</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>44942.789178240739</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="3">
-        <v>38</v>
-      </c>
-      <c r="E31" s="3">
-        <v>34</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M31" s="3">
-        <v>1</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S31" s="3" t="str">
-        <f>TEXT("5496865618548718154","0")</f>
-        <v>5496865618548710000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>44945.701412037037</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="3">
-        <v>35</v>
-      </c>
-      <c r="E32" s="3">
-        <v>28</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" s="3">
-        <v>35000</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M32" s="3">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S32" s="3" t="str">
+      <c r="S30" s="3" t="str">
         <f>TEXT("5499382029412635836","0")</f>
         <v>5499382029412630000</v>
       </c>

--- a/NLP Projects/Divorce_Rate_Analysis/Divocre Rata Analysis.xlsx
+++ b/NLP Projects/Divorce_Rate_Analysis/Divocre Rata Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zee Tech\AppData\Local\Programs\Python\Python39\Scripts\Data_Analysis_Projects\NLP Projects\Divorce_Rate_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C98A289-D569-40CE-8C94-5B4BBE73EA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03019283-25A3-4D8B-9F3F-2CBF424C55A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19560" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="147">
   <si>
     <t>Submission Date</t>
   </si>
@@ -169,9 +169,6 @@
     <t>BS</t>
   </si>
   <si>
-    <t>2 girl ki</t>
-  </si>
-  <si>
     <t>Faislabad</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>Boy Nasha kr k larta jhagarta tha aur larki ki 1 beti thi pichli shadi se Jo k us larky ko achii ni lagti thi is lye bhii wo ziada larta tha</t>
   </si>
   <si>
-    <t>2nd girl ki</t>
-  </si>
-  <si>
     <t>No education</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
     <t>Neighbour</t>
   </si>
   <si>
-    <t>Household problem of sass and nand, negligence of husbnad towards child and wife, no fullfilling spouse needs</t>
-  </si>
-  <si>
     <t>taunts and depression from husband and his mother' attitude, first of all they pretended themselves settled family, with nicest behavior towards our girlat the time of rishta or engagement k puray arsay may like 1 or may be half year</t>
   </si>
   <si>
@@ -343,18 +334,12 @@
     <t>Span of Marriage Life</t>
   </si>
   <si>
-    <t>Marriage No.</t>
-  </si>
-  <si>
     <t>death threats to after marriage, persecution on woman, woman misbehave with man sisters</t>
   </si>
   <si>
     <t>Reason of Divorce</t>
   </si>
   <si>
-    <t>Job lost, No Child, Financial Problems</t>
-  </si>
-  <si>
     <t>No Child.</t>
   </si>
   <si>
@@ -370,18 +355,12 @@
     <t>Psychological issues of man, conservative, mother i law'behavior, not repect the woman,skeptical, selfish man</t>
   </si>
   <si>
-    <t>Girls was not paying heed to her husband, selfish woman, Attitude issue of woman, feminist</t>
-  </si>
-  <si>
     <t>no child, black magic on man</t>
   </si>
   <si>
     <t>Wife checked husband's cell phone,extra marital affaris of man</t>
   </si>
   <si>
-    <t>children issues and some black magic on boy, no child, black magic on man</t>
-  </si>
-  <si>
     <t>Girl want to go with other male person therefore she left her husband and childrens,extra marital affaris of woman</t>
   </si>
   <si>
@@ -389,6 +368,99 @@
   </si>
   <si>
     <t xml:space="preserve">Larai jhagra aur kharcha nhi deta tha boy jis ki waja se larki bhi thori kahin aur set thi shakk tha, financial problems, extra marital affairs of woman, </t>
+  </si>
+  <si>
+    <t>Marriage No. of Male</t>
+  </si>
+  <si>
+    <t>Marriage No. of Female</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>job lost, no child, financial problems</t>
+  </si>
+  <si>
+    <t>no child, black magic on boy, no child, black magic on man</t>
+  </si>
+  <si>
+    <t>Reasons from Woman Side</t>
+  </si>
+  <si>
+    <t>Reasons from Man Sdie</t>
+  </si>
+  <si>
+    <t>husband mother in law mishbehave with his sister</t>
+  </si>
+  <si>
+    <t>no child</t>
+  </si>
+  <si>
+    <t>no child, black magic</t>
+  </si>
+  <si>
+    <t>extra mertial affairs</t>
+  </si>
+  <si>
+    <t>Girls was not paying heed to her husband, selfish woman, Attitude issue of woman</t>
+  </si>
+  <si>
+    <t>Girls was not paying heed to her husband, selfish woman, Attitude issue of woman,</t>
+  </si>
+  <si>
+    <t>extra marital affaris of wife</t>
+  </si>
+  <si>
+    <t>mother-in-law and daughter-in-law feud</t>
+  </si>
+  <si>
+    <t>Mental issues of husband</t>
+  </si>
+  <si>
+    <t>drug addicted, persecution on wife</t>
+  </si>
+  <si>
+    <t>drugs addicted ,greedy man, persecution on wife, threat of death to wife</t>
+  </si>
+  <si>
+    <t>anger of husband, persecution on wife</t>
+  </si>
+  <si>
+    <t>dis-repect from husband, husband taunts, mother in law attitude,</t>
+  </si>
+  <si>
+    <t>Household problem of sass and nand, negligence of husbnad towards child and wife, no fullfilling wife needs</t>
+  </si>
+  <si>
+    <t>problem of mother in law and and sister in law,negligence of husbnad towards child and wife, no fullfilling wife needs</t>
+  </si>
+  <si>
+    <t>financial problems</t>
+  </si>
+  <si>
+    <t>psychological issues of husband,persecution on wife</t>
+  </si>
+  <si>
+    <t>extra marital affaris</t>
+  </si>
+  <si>
+    <t>drug addicted, persecution on wife, financial problem</t>
+  </si>
+  <si>
+    <t>extra merital affairs</t>
+  </si>
+  <si>
+    <t>financial problems,household problemns</t>
+  </si>
+  <si>
+    <t>financial problems, household problems</t>
+  </si>
+  <si>
+    <t>extra marital affairs of wifle</t>
+  </si>
+  <si>
+    <t>drug addicted, persecution on wife, first husband child</t>
   </si>
 </sst>
 </file>
@@ -398,7 +470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -416,6 +488,25 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FFB8DDFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -456,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,6 +557,30 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,11 +800,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -708,73 +823,85 @@
     <col min="12" max="12" width="21.5703125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="17.85546875" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="138.7109375" customWidth="1"/>
-    <col min="17" max="17" width="43.140625" customWidth="1"/>
-    <col min="18" max="18" width="31.42578125" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="55.7109375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="32.28515625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="38.85546875" style="11" customWidth="1"/>
+    <col min="19" max="19" width="43.140625" customWidth="1"/>
+    <col min="20" max="20" width="31.42578125" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>107</v>
+      <c r="Q1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44938.51866898148</v>
       </c>
@@ -785,16 +912,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3">
         <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="3">
         <v>20000</v>
@@ -803,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M2" s="3">
         <v>0</v>
@@ -820,21 +947,28 @@
       <c r="O2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" s="10"/>
+      <c r="S2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="3" t="str">
+      <c r="T2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="3" t="str">
         <f>TEXT("5493176133981929163","0")</f>
         <v>5493176133981920000</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44938.527048611111</v>
       </c>
@@ -880,21 +1014,28 @@
       <c r="O3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="3" t="str">
+      <c r="P3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="10"/>
+      <c r="S3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="3" t="str">
         <f>TEXT("5493183369424915401","0")</f>
         <v>5493183369424910000</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44938.538923611108</v>
       </c>
@@ -923,7 +1064,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>14</v>
@@ -940,21 +1081,28 @@
       <c r="O4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="3" t="str">
+      <c r="P4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="3" t="str">
         <f>TEXT("5493193637923199159","0")</f>
         <v>5493193637923190000</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44938.545208333337</v>
       </c>
@@ -983,7 +1131,7 @@
         <v>13</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>14</v>
@@ -1000,21 +1148,28 @@
       <c r="O5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" s="3" t="str">
+      <c r="P5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" s="10"/>
+      <c r="S5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" s="3" t="str">
         <f>TEXT("5493199062022777462","0")</f>
         <v>5493199062022770000</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44938.66505787037</v>
       </c>
@@ -1043,7 +1198,7 @@
         <v>13</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>21</v>
@@ -1060,21 +1215,26 @@
       <c r="O6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S6" s="3" t="str">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="3" t="str">
         <f>TEXT("5493302613209607382","0")</f>
         <v>5493302613209600000</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44938.807395833333</v>
       </c>
@@ -1103,7 +1263,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>14</v>
@@ -1120,26 +1280,33 @@
       <c r="O7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S7" s="3" t="str">
+      <c r="P7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="R7" s="10"/>
+      <c r="S7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="3" t="str">
         <f>TEXT("5493425564313872618","0")</f>
         <v>5493425564313870000</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44938.847881944443</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>3</v>
@@ -1151,7 +1318,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>27</v>
@@ -1180,21 +1347,28 @@
       <c r="O8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q8" s="3" t="s">
+      <c r="P8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="R8" s="10"/>
+      <c r="S8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S8" s="3" t="str">
+      <c r="T8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U8" s="3" t="str">
         <f>TEXT("5493460564227230292","0")</f>
         <v>5493460564227230000</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44940.655833333331</v>
       </c>
@@ -1237,21 +1411,28 @@
       <c r="O9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S9" s="3" t="str">
+      <c r="P9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U9" s="3" t="str">
         <f>TEXT("5495022452541576717","0")</f>
         <v>5495022452541570000</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44940.660555555558</v>
       </c>
@@ -1280,14 +1461,15 @@
         <v>13</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S10" s="3" t="str">
+        <v>51</v>
+      </c>
+      <c r="U10" s="3" t="str">
         <f>TEXT("5495026723149408113","0")</f>
         <v>5495026723149400000</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44940.665509259263</v>
       </c>
@@ -1310,7 +1492,7 @@
         <v>13</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>14</v>
@@ -1327,18 +1509,21 @@
       <c r="O11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S11" s="3" t="str">
+      <c r="S11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U11" s="3" t="str">
         <f>TEXT("5495030609376851703","0")</f>
         <v>5495030609376850000</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44940.67082175926</v>
       </c>
@@ -1367,7 +1552,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>14</v>
@@ -1384,21 +1569,28 @@
       <c r="O12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S12" s="3" t="str">
+      <c r="P12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U12" s="3" t="str">
         <f>TEXT("5495035591956341886","0")</f>
         <v>5495035591956340000</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44940.721631944441</v>
       </c>
@@ -1427,13 +1619,13 @@
         <v>13</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
@@ -1444,21 +1636,26 @@
       <c r="O13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S13" s="3" t="str">
+      <c r="T13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U13" s="3" t="str">
         <f>TEXT("5495079490511700607","0")</f>
         <v>5495079490511700000</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44940.860150462962</v>
       </c>
@@ -1504,21 +1701,28 @@
       <c r="O14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="R14" s="10"/>
+      <c r="S14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S14" s="3" t="str">
+      <c r="T14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U14" s="3" t="str">
         <f>TEXT("5495199177481944986","0")</f>
         <v>5495199177481940000</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44940.861898148149</v>
       </c>
@@ -1564,29 +1768,36 @@
       <c r="O15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="S15" s="3" t="str">
+      <c r="P15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="R15" s="10"/>
+      <c r="S15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" s="3" t="str">
         <f>TEXT("5495200687486766263","0")</f>
         <v>5495200687486760000</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44940.863796296297</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D16" s="3">
         <v>23</v>
@@ -1607,7 +1818,7 @@
         <v>13</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>14</v>
@@ -1624,21 +1835,28 @@
       <c r="O16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16" s="3" t="str">
+      <c r="P16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U16" s="3" t="str">
         <f>TEXT("5495202327481674206","0")</f>
         <v>5495202327481670000</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44940.867291666669</v>
       </c>
@@ -1658,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="3">
         <v>30000</v>
@@ -1667,7 +1885,7 @@
         <v>13</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>14</v>
@@ -1684,21 +1902,26 @@
       <c r="O17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S17" s="3" t="str">
+      <c r="P17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U17" s="3" t="str">
         <f>TEXT("5495205347487933613","0")</f>
         <v>5495205347487930000</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44940.874201388891</v>
       </c>
@@ -1718,7 +1941,7 @@
         <v>48</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="3">
         <v>40000</v>
@@ -1727,7 +1950,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>14</v>
@@ -1739,26 +1962,33 @@
         <v>1</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S18" s="3" t="str">
+      <c r="P18" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U18" s="3" t="str">
         <f>TEXT("5495211317484008859","0")</f>
         <v>5495211317484000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44940.893009259256</v>
       </c>
@@ -1778,7 +2008,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H19" s="3">
         <v>30000</v>
@@ -1787,7 +2017,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>14</v>
@@ -1799,26 +2029,33 @@
         <v>1</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S19" s="3" t="str">
+      <c r="P19" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U19" s="3" t="str">
         <f>TEXT("5495227562424460576","0")</f>
         <v>5495227562424460000</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44940.895428240743</v>
       </c>
@@ -1835,10 +2072,10 @@
         <v>26</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="3">
         <v>50000</v>
@@ -1847,7 +2084,7 @@
         <v>13</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>14</v>
@@ -1859,26 +2096,33 @@
         <v>1</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S20" s="3" t="str">
+      <c r="P20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U20" s="3" t="str">
         <f>TEXT("5495229652425405175","0")</f>
         <v>5495229652425400000</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44940.900150462963</v>
       </c>
@@ -1898,7 +2142,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="3">
         <v>60000</v>
@@ -1907,7 +2151,7 @@
         <v>13</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>14</v>
@@ -1924,21 +2168,30 @@
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S21" s="3" t="str">
+      <c r="P21" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U21" s="3" t="str">
         <f>TEXT("5495233732424772640","0")</f>
         <v>5495233732424770000</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44940.9059837963</v>
       </c>
@@ -1955,10 +2208,10 @@
         <v>28</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H22" s="3">
         <v>10000</v>
@@ -1967,7 +2220,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>14</v>
@@ -1984,21 +2237,28 @@
       <c r="O22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S22" s="3" t="str">
+      <c r="P22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U22" s="3" t="str">
         <f>TEXT("5495238776412986986","0")</f>
         <v>5495238776412980000</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44940.90997685185</v>
       </c>
@@ -2027,7 +2287,7 @@
         <v>13</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>14</v>
@@ -2044,21 +2304,30 @@
       <c r="O23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S23" s="3" t="str">
+      <c r="P23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U23" s="3" t="str">
         <f>TEXT("5495242226412045257","0")</f>
         <v>5495242226412040000</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44940.942569444444</v>
       </c>
@@ -2075,10 +2344,10 @@
         <v>18</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H24" s="3">
         <v>70000</v>
@@ -2087,7 +2356,7 @@
         <v>13</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>14</v>
@@ -2104,21 +2373,28 @@
       <c r="O24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S24" s="3" t="str">
+      <c r="P24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U24" s="3" t="str">
         <f>TEXT("5495270382428878294","0")</f>
         <v>5495270382428870000</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44940.957372685189</v>
       </c>
@@ -2135,10 +2411,10 @@
         <v>28</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H25" s="3">
         <v>30000</v>
@@ -2147,7 +2423,7 @@
         <v>13</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>14</v>
@@ -2164,21 +2440,28 @@
       <c r="O25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S25" s="3" t="str">
+      <c r="P25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U25" s="3" t="str">
         <f>TEXT("5495283179968689195","0")</f>
         <v>5495283179968680000</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V25" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,10 +2475,10 @@
         <v>18</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H26" s="3">
         <v>70000</v>
@@ -2204,7 +2487,7 @@
         <v>13</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>14</v>
@@ -2216,22 +2499,29 @@
         <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q26" s="3" t="s">
+      <c r="P26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="S26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2245,10 +2535,10 @@
         <v>23</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H27" s="3">
         <v>40000</v>
@@ -2257,7 +2547,7 @@
         <v>13</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>14</v>
@@ -2274,17 +2564,24 @@
       <c r="O27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="R27" s="10"/>
+      <c r="S27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
@@ -2298,10 +2595,10 @@
         <v>19</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H28" s="3">
         <v>20000</v>
@@ -2310,13 +2607,13 @@
         <v>13</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M28" s="3">
         <v>1</v>
@@ -2327,17 +2624,24 @@
       <c r="O28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="P28" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44942.789178240739</v>
       </c>
@@ -2366,7 +2670,7 @@
         <v>13</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>21</v>
@@ -2383,21 +2687,28 @@
       <c r="O29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S29" s="3" t="str">
+      <c r="P29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U29" s="3" t="str">
         <f>TEXT("5496865618548718154","0")</f>
         <v>5496865618548710000</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44945.701412037037</v>
       </c>
@@ -2414,10 +2725,10 @@
         <v>28</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H30" s="3">
         <v>35000</v>
@@ -2426,7 +2737,7 @@
         <v>13</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>14</v>
@@ -2443,21 +2754,33 @@
       <c r="O30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S30" s="3" t="str">
+      <c r="P30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U30" s="3" t="str">
         <f>TEXT("5499382029412635836","0")</f>
         <v>5499382029412630000</v>
       </c>
+      <c r="V30" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q31" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NLP Projects/Divorce_Rate_Analysis/Divocre Rata Analysis.xlsx
+++ b/NLP Projects/Divorce_Rate_Analysis/Divocre Rata Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zee Tech\AppData\Local\Programs\Python\Python39\Scripts\Data_Analysis_Projects\NLP Projects\Divorce_Rate_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03019283-25A3-4D8B-9F3F-2CBF424C55A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91932C29-BD4B-4F37-9833-382B7745D994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19560" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="160">
   <si>
     <t>Submission Date</t>
   </si>
@@ -391,18 +391,9 @@
     <t>Reasons from Man Sdie</t>
   </si>
   <si>
-    <t>husband mother in law mishbehave with his sister</t>
-  </si>
-  <si>
     <t>no child</t>
   </si>
   <si>
-    <t>no child, black magic</t>
-  </si>
-  <si>
-    <t>extra mertial affairs</t>
-  </si>
-  <si>
     <t>Girls was not paying heed to her husband, selfish woman, Attitude issue of woman</t>
   </si>
   <si>
@@ -415,30 +406,12 @@
     <t>mother-in-law and daughter-in-law feud</t>
   </si>
   <si>
-    <t>Mental issues of husband</t>
-  </si>
-  <si>
     <t>drug addicted, persecution on wife</t>
   </si>
   <si>
-    <t>drugs addicted ,greedy man, persecution on wife, threat of death to wife</t>
-  </si>
-  <si>
-    <t>anger of husband, persecution on wife</t>
-  </si>
-  <si>
-    <t>dis-repect from husband, husband taunts, mother in law attitude,</t>
-  </si>
-  <si>
     <t>Household problem of sass and nand, negligence of husbnad towards child and wife, no fullfilling wife needs</t>
   </si>
   <si>
-    <t>problem of mother in law and and sister in law,negligence of husbnad towards child and wife, no fullfilling wife needs</t>
-  </si>
-  <si>
-    <t>financial problems</t>
-  </si>
-  <si>
     <t>psychological issues of husband,persecution on wife</t>
   </si>
   <si>
@@ -460,7 +433,73 @@
     <t>extra marital affairs of wifle</t>
   </si>
   <si>
-    <t>drug addicted, persecution on wife, first husband child</t>
+    <t>family issues</t>
+  </si>
+  <si>
+    <t>financial problems,, job lost</t>
+  </si>
+  <si>
+    <t>extra mertial affairs of husband</t>
+  </si>
+  <si>
+    <t>no attention to husband, selfish wife, attitude of wife, slovenly woman</t>
+  </si>
+  <si>
+    <t>household problems</t>
+  </si>
+  <si>
+    <t>no child, black magic on husband</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intervention of wife family </t>
+  </si>
+  <si>
+    <t>dead threats to wife, persecution on wife</t>
+  </si>
+  <si>
+    <t>sarcasm of husband family</t>
+  </si>
+  <si>
+    <t>psychological issues of husband, conservative, mother in law behavior, no repect of wife,skeptical, selfish man</t>
+  </si>
+  <si>
+    <t>no attention to husband, selfish woman, attitude of wife,slovenly woman</t>
+  </si>
+  <si>
+    <t>husband misbehavior, sarcasm of husband family</t>
+  </si>
+  <si>
+    <t>drug addicted ,greedy man, persecution on wife, death threats to wife</t>
+  </si>
+  <si>
+    <t>selfish wife</t>
+  </si>
+  <si>
+    <t>drug addicted, persecution on wife, ex-husband child</t>
+  </si>
+  <si>
+    <t>mental condition of husband, financial problems, jobless husband</t>
+  </si>
+  <si>
+    <t>extra merital affairs, jobless husband</t>
+  </si>
+  <si>
+    <t>financial problems, jobless husband</t>
+  </si>
+  <si>
+    <t>skepitcal husband</t>
+  </si>
+  <si>
+    <t>slovenly man</t>
+  </si>
+  <si>
+    <t>husband anger, persecution on wife</t>
+  </si>
+  <si>
+    <t>problem of mother in law and and sister in law,negligence of husbnad towards child and wife, not fullfilling wife needs, household problems</t>
+  </si>
+  <si>
+    <t>disrepect from husband, husband taunts, mother in law attitude,sarcasm of husband family, husband attitude, disrespect from husband in-laws.</t>
   </si>
 </sst>
 </file>
@@ -802,9 +841,9 @@
   </sheetPr>
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -823,10 +862,10 @@
     <col min="12" max="12" width="21.5703125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="17.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="55.7109375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="32.28515625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="38.85546875" style="11" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" customWidth="1"/>
+    <col min="16" max="16" width="52.5703125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="39" style="11" customWidth="1"/>
+    <col min="18" max="18" width="55" style="11" customWidth="1"/>
     <col min="19" max="19" width="43.140625" customWidth="1"/>
     <col min="20" max="20" width="31.42578125" customWidth="1"/>
     <col min="21" max="21" width="12.42578125" hidden="1" customWidth="1"/>
@@ -951,9 +990,11 @@
         <v>104</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R2" s="10"/>
+        <v>143</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="S2" s="3" t="s">
         <v>47</v>
       </c>
@@ -1018,9 +1059,11 @@
         <v>119</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="R3" s="10"/>
+        <v>123</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="S3" s="3" t="s">
         <v>89</v>
       </c>
@@ -1086,7 +1129,7 @@
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="12" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>83</v>
@@ -1152,7 +1195,7 @@
         <v>113</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="3" t="s">
@@ -1284,9 +1327,11 @@
         <v>106</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="R7" s="10"/>
+        <v>123</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="S7" s="3" t="s">
         <v>77</v>
       </c>
@@ -1351,9 +1396,11 @@
         <v>120</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="R8" s="10"/>
+        <v>142</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="S8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1368,7 +1415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44940.655833333331</v>
       </c>
@@ -1416,7 +1463,7 @@
       </c>
       <c r="Q9" s="10"/>
       <c r="R9" s="10" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>79</v>
@@ -1523,7 +1570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44940.67082175926</v>
       </c>
@@ -1574,7 +1621,7 @@
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>80</v>
@@ -1639,8 +1686,12 @@
       <c r="P13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
+      <c r="Q13" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="S13" s="3" t="s">
         <v>47</v>
       </c>
@@ -1655,7 +1706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44940.860150462962</v>
       </c>
@@ -1702,10 +1753,10 @@
         <v>16</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="R14" s="10"/>
       <c r="S14" s="3" t="s">
@@ -1722,7 +1773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44940.861898148149</v>
       </c>
@@ -1769,10 +1820,10 @@
         <v>16</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="R15" s="10"/>
       <c r="S15" s="3" t="s">
@@ -1840,7 +1891,7 @@
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>81</v>
@@ -1905,8 +1956,12 @@
       <c r="P17" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
+      <c r="Q17" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>148</v>
+      </c>
       <c r="S17" s="3" t="s">
         <v>53</v>
       </c>
@@ -1972,7 +2027,7 @@
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="12" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>81</v>
@@ -2037,9 +2092,11 @@
       <c r="P19" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="Q19" s="10"/>
+      <c r="Q19" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="R19" s="12" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>85</v>
@@ -2106,7 +2163,7 @@
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="12" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>86</v>
@@ -2172,10 +2229,10 @@
         <v>115</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="R21" s="12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>83</v>
@@ -2240,9 +2297,11 @@
       <c r="P22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q22" s="10"/>
+      <c r="Q22" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="R22" s="12" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>80</v>
@@ -2308,10 +2367,10 @@
         <v>60</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="R23" s="12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>87</v>
@@ -2378,7 +2437,7 @@
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="12" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>82</v>
@@ -2445,7 +2504,7 @@
       </c>
       <c r="Q25" s="10"/>
       <c r="R25" s="12" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="S25" s="3" t="s">
         <v>82</v>
@@ -2509,7 +2568,7 @@
       </c>
       <c r="Q26" s="10"/>
       <c r="R26" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>47</v>
@@ -2568,9 +2627,11 @@
         <v>68</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="R27" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="S27" s="3" t="s">
         <v>89</v>
       </c>
@@ -2625,11 +2686,11 @@
         <v>30</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Q28" s="12"/>
       <c r="R28" s="12" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>82</v>
@@ -2692,7 +2753,7 @@
       </c>
       <c r="Q29" s="10"/>
       <c r="R29" s="12" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>82</v>
@@ -2759,7 +2820,7 @@
       </c>
       <c r="Q30" s="10"/>
       <c r="R30" s="12" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>88</v>
